--- a/uploads/error_made_country.xlsx
+++ b/uploads/error_made_country.xlsx
@@ -17,6 +17,57 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
+    <t xml:space="preserve"> Ёритиш занжири</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9405300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ёритиш занжири (Осветительные цепи)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Дарахт шаклидаги декоратив чироқ 84 та гул шаклидаги сикменли LEDлар</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Жиддий хавфга эга маҳсулотлар</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Истеъмол товарлари</t>
+  </si>
+  <si>
+    <t>A12/01155/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВЕНГРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Номаълум</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Куйиш, электр токи уриши, ёнғин</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90L LED fény-fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78000000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кабеллар яхши боғланмаган ва жуда ингичка. Симлар етарли даражада изоляцияга эга эмас. Кабел қизиб кетиши, фойдаланувчи куйиши ва ёнғинга олиб келиши мумкин. Фойдаланувчини ток уриши мумкин. Намликдан химояланмаган, лекин ташқи фойдаланиш учун тавсия этилган. EN 60598 Европа стандарти талабларига мувофиқ эмас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Охирги ҳаридорлардан қайтариб олиш, маҳсулотни бозордан қайтариш.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Қадоқлаш: Шаффоф пластик қоп.</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/consumers/consumers_safety/safety_products/rapex/alerts/?event=viewProduct&amp;reference=A12/01155/20&amp;lng=en</t>
+  </si>
+  <si>
     <t>Категория</t>
   </si>
   <si>
@@ -123,57 +174,6 @@
   </si>
   <si>
     <t>Қадоқлаш тавсифи(р)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ёритиш занжири</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9405300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ёритиш занжири (Осветительные цепи)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Дарахт шаклидаги декоратив чироқ 84 та гул шаклидаги сикменли LEDлар</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Жиддий хавфга эга маҳсулотлар</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Истеъмол товарлари</t>
-  </si>
-  <si>
-    <t>A12/01155/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ВЕНГРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Номаълум</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Куйиш, электр токи уриши, ёнғин</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90L LED fény-fa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78000000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Кабеллар яхши боғланмаган ва жуда ингичка. Симлар етарли даражада изоляцияга эга эмас. Кабел қизиб кетиши, фойдаланувчи куйиши ва ёнғинга олиб келиши мумкин. Фойдаланувчини ток уриши мумкин. Намликдан химояланмаган, лекин ташқи фойдаланиш учун тавсия этилган. EN 60598 Европа стандарти талабларига мувофиқ эмас.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Охирги ҳаридорлардан қайтариб олиш, маҳсулотни бозордан қайтариш.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Қадоқлаш: Шаффоф пластик қоп.</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/consumers/consumers_safety/safety_products/rapex/alerts/?event=viewProduct&amp;reference=A12/01155/20&amp;lng=en</t>
   </si>
 </sst>
 </file>
@@ -197,10 +197,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -211,7 +208,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -522,229 +519,229 @@
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="X2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AD2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -753,5 +750,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>